--- a/biology/Médecine/Écaille_de_l'os_frontal/Écaille_de_l'os_frontal.xlsx
+++ b/biology/Médecine/Écaille_de_l'os_frontal/Écaille_de_l'os_frontal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89caille_de_l%27os_frontal</t>
+          <t>Écaille_de_l'os_frontal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écaille de l'os frontal est la partie supérieure de l'os frontal située au dessus du plafond orbitaire. Elle présente une face externe, une face interne.et un bord circulaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89caille_de_l%27os_frontal</t>
+          <t>Écaille_de_l'os_frontal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Face externe de l'écaille frontale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La face externe de l'écaille frontale est convexe et présente généralement, dans la partie inférieure de la ligne médiane, les restes de la suture métopique. Dans la petite enfance, cette suture divise l'os frontal en deux parties qui fusionnent avec l'âge. La fusion peut ne pas se produire et la suture métopique peut persister toute la vie.
 De chaque côté de cette suture, à environ 3 cm. au-dessus de la marge supra-orbitaire, se trouve deux élévations arrondies, les éminences frontales.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89caille_de_l%27os_frontal</t>
+          <t>Écaille_de_l'os_frontal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Face interne de l'os frontal</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La surface interne de l'écaille de l'os frontal est concave. Elle présente dans la partie supérieure de la ligne médiane un sillon vertical, la partie frontale du sillon du sinus sagittal supérieur, dont les bords se rejoignent en bas pour former la crête frontale. Le sillon loge le sinus sagittal supérieur, tandis que ses bords et la crête frontale sont les zones d'attache de la faux du cerveau.
 De chaque côtés se trouvent les fosses frontales en regard des bosses frontales.
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89caille_de_l%27os_frontal</t>
+          <t>Écaille_de_l'os_frontal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Bord de l'écaille de l'os frontal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bord postérieur de l'écaille de l'os frontal est semi-circulaire. 
 Sa partie supérieure forme le bord pariétal de l'os frontal et s'articule avec les deux os pariétaux pour former la suture coronale.
